--- a/data/trans_orig/P25C$parches_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25C$parches_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE8BB00-9C95-4DFA-BB40-8EE83FF25799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B2D9A0E-D18F-49BC-8843-6287B5DDC4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCB6B12E-6883-4642-9B6C-75A49B459A6D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{69117851-2363-4019-A0F9-B59B2361CE00}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="325">
-  <si>
-    <t>Población según método de dejar de fumar en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="310">
+  <si>
+    <t>Población según método de dejar de fumar (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,13 +65,13 @@
     <t>Ayuda del Centro de Salud (parches, pastillas)</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,9%</t>
+    <t>11,46%</t>
   </si>
   <si>
     <t>0%</t>
@@ -80,10 +80,10 @@
     <t>7,32%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>Ayuda del Centro de Salud (charlas, cursos)</t>
@@ -104,910 +104,865 @@
     <t>Por mi cuenta, sin ayuda específica</t>
   </si>
   <si>
-    <t>98,0%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
     <t>Por mi cuenta, con chicles, parches u otros productos farmacéuticos</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>Otra forma</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>Otra forma</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1422,7 +1377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DB6BB-12C6-469B-9330-01476C762EE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F055F1-A44C-4BA2-B006-5438777C8AFD}">
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1761,13 +1716,13 @@
         <v>42</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1782,25 +1737,25 @@
         <v>12</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1815,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
@@ -1833,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1848,25 +1803,25 @@
         <v>12</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1875,31 +1830,31 @@
         <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1908,31 +1863,31 @@
         <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1941,54 +1896,54 @@
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>86</v>
@@ -2117,22 +2072,22 @@
         <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2141,31 +2096,31 @@
         <v>29</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2174,10 +2129,10 @@
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>120</v>
@@ -2195,15 +2150,15 @@
         <v>123</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
@@ -2215,25 +2170,25 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2242,31 +2197,31 @@
         <v>16</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2275,25 +2230,25 @@
         <v>19</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>10</v>
@@ -2317,16 +2272,16 @@
         <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>146</v>
@@ -2350,7 +2305,7 @@
         <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>151</v>
@@ -2383,22 +2338,22 @@
         <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2413,19 +2368,19 @@
         <v>12</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>10</v>
@@ -2526,13 +2481,13 @@
         <v>173</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2595,7 +2550,7 @@
         <v>179</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>24</v>
@@ -2669,19 +2624,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>10</v>
@@ -2693,13 +2648,13 @@
         <v>170</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2714,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
@@ -2732,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2741,13 +2696,13 @@
         <v>19</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
@@ -2759,13 +2714,13 @@
         <v>170</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2780,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
@@ -2798,7 +2753,7 @@
         <v>12</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2807,31 +2762,31 @@
         <v>21</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>176</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2846,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -2864,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2879,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
@@ -2897,42 +2852,42 @@
         <v>12</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2941,31 +2896,31 @@
         <v>16</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2980,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>10</v>
@@ -2989,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>10</v>
@@ -2998,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3007,31 +2962,31 @@
         <v>20</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3040,31 +2995,31 @@
         <v>21</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3073,31 +3028,31 @@
         <v>29</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3106,66 +3061,66 @@
         <v>37</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -3174,13 +3129,13 @@
         <v>16</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
@@ -3189,16 +3144,16 @@
         <v>12</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3213,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
@@ -3222,7 +3177,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>10</v>
@@ -3231,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3240,31 +3195,31 @@
         <v>20</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>258</v>
+        <v>88</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>259</v>
+        <v>10</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>264</v>
+        <v>10</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3273,31 +3228,31 @@
         <v>21</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>271</v>
+        <v>189</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3306,13 +3261,13 @@
         <v>29</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>10</v>
@@ -3321,16 +3276,16 @@
         <v>12</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>278</v>
+        <v>10</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3339,31 +3294,31 @@
         <v>37</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3374,31 +3329,31 @@
         <v>8</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>94</v>
+        <v>272</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>275</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3407,31 +3362,31 @@
         <v>16</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>290</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3440,31 +3395,31 @@
         <v>19</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>292</v>
+        <v>10</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3473,31 +3428,31 @@
         <v>20</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>301</v>
+        <v>182</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>303</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3506,31 +3461,31 @@
         <v>21</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3539,31 +3494,31 @@
         <v>29</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3572,36 +3527,36 @@
         <v>37</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>129</v>
+        <v>306</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
